--- a/EquiposFutbol/Equipos_Jugadores.xlsx
+++ b/EquiposFutbol/Equipos_Jugadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="103">
   <si>
     <t>ID Equipo</t>
   </si>
@@ -35,91 +35,292 @@
     <t>Posición</t>
   </si>
   <si>
-    <t>Equipo A</t>
-  </si>
-  <si>
-    <t>Ciudad A</t>
-  </si>
-  <si>
-    <t>Estadio A</t>
-  </si>
-  <si>
-    <t>Jugador 1</t>
+    <t>FC Barcelona</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Camp Nou</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>Delantero</t>
+  </si>
+  <si>
+    <t>Sergio Busquets</t>
+  </si>
+  <si>
+    <t>Centrocampista</t>
+  </si>
+  <si>
+    <t>Gerard Piqué</t>
+  </si>
+  <si>
+    <t>Defensa</t>
+  </si>
+  <si>
+    <t>Ansu Fati</t>
+  </si>
+  <si>
+    <t>Frenkie de Jong</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Santiago Bernabéu</t>
+  </si>
+  <si>
+    <t>Karim Benzema</t>
+  </si>
+  <si>
+    <t>Luka Modric</t>
+  </si>
+  <si>
+    <t>Sergio Ramos</t>
+  </si>
+  <si>
+    <t>Isco Alarcón</t>
+  </si>
+  <si>
+    <t>Atlético Madrid</t>
+  </si>
+  <si>
+    <t>Wanda Metropolitano</t>
+  </si>
+  <si>
+    <t>Koke</t>
+  </si>
+  <si>
+    <t>Jan Oblak</t>
   </si>
   <si>
     <t>Portero</t>
   </si>
   <si>
-    <t>Jugador 2</t>
-  </si>
-  <si>
-    <t>Defensa</t>
-  </si>
-  <si>
-    <t>Equipo B</t>
-  </si>
-  <si>
-    <t>Ciudad B</t>
-  </si>
-  <si>
-    <t>Estadio B</t>
-  </si>
-  <si>
-    <t>Jugador 3</t>
-  </si>
-  <si>
-    <t>Mediocampista</t>
-  </si>
-  <si>
-    <t>Jugador 4</t>
-  </si>
-  <si>
-    <t>Delantero</t>
-  </si>
-  <si>
-    <t>Equipo C</t>
-  </si>
-  <si>
-    <t>Ciudad C</t>
-  </si>
-  <si>
-    <t>Estadio C</t>
-  </si>
-  <si>
-    <t>Jugador 5</t>
-  </si>
-  <si>
-    <t>Jugador 6</t>
-  </si>
-  <si>
-    <t>Equipo D</t>
-  </si>
-  <si>
-    <t>Ciudad D</t>
-  </si>
-  <si>
-    <t>Estadio D</t>
-  </si>
-  <si>
-    <t>Jugador 7</t>
-  </si>
-  <si>
-    <t>Jugador 8</t>
-  </si>
-  <si>
-    <t>Equipo E</t>
-  </si>
-  <si>
-    <t>Ciudad E</t>
-  </si>
-  <si>
-    <t>Estadio E</t>
-  </si>
-  <si>
-    <t>Jugador 9</t>
-  </si>
-  <si>
-    <t>Jugador 10</t>
+    <t>João Félix</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Ramón Sánchez Pizjuán</t>
+  </si>
+  <si>
+    <t>Jesús Navas</t>
+  </si>
+  <si>
+    <t>Youssef En-Nesyri</t>
+  </si>
+  <si>
+    <t>Ivan Rakitic</t>
+  </si>
+  <si>
+    <t>Valencia CF</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Mestalla</t>
+  </si>
+  <si>
+    <t>José Gayà</t>
+  </si>
+  <si>
+    <t>Carlos Soler</t>
+  </si>
+  <si>
+    <t>Maxi Gómez</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Benito Villamarín</t>
+  </si>
+  <si>
+    <t>Nabil Fekir</t>
+  </si>
+  <si>
+    <t>Sergio Canales</t>
+  </si>
+  <si>
+    <t>Marc Bartra</t>
+  </si>
+  <si>
+    <t>Hatem Ben Arfa</t>
+  </si>
+  <si>
+    <t>Villarreal CF</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Estadio de la Cerámica</t>
+  </si>
+  <si>
+    <t>Gerard Moreno</t>
+  </si>
+  <si>
+    <t>Pau Torres</t>
+  </si>
+  <si>
+    <t>Daniel Parejo</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>San Mamés</t>
+  </si>
+  <si>
+    <t>Iker Muniain</t>
+  </si>
+  <si>
+    <t>Iñaki Williams</t>
+  </si>
+  <si>
+    <t>Yeray Álvarez</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>San Sebastián</t>
+  </si>
+  <si>
+    <t>Reale Arena</t>
+  </si>
+  <si>
+    <t>Mikel Oyarzabal</t>
+  </si>
+  <si>
+    <t>David Silva</t>
+  </si>
+  <si>
+    <t>Mikel Merino</t>
+  </si>
+  <si>
+    <t>RC Celta de Vigo</t>
+  </si>
+  <si>
+    <t>Vigo</t>
+  </si>
+  <si>
+    <t>Balaídos</t>
+  </si>
+  <si>
+    <t>Iago Aspas</t>
+  </si>
+  <si>
+    <t>Denis Suárez</t>
+  </si>
+  <si>
+    <t>Hugo Mallo</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
+    <t>RCDE Stadium</t>
+  </si>
+  <si>
+    <t>Raúl de Tomás</t>
+  </si>
+  <si>
+    <t>Adri Embarba</t>
+  </si>
+  <si>
+    <t>Leandro Cabrera</t>
+  </si>
+  <si>
+    <t>CA Osasuna</t>
+  </si>
+  <si>
+    <t>Pamplona</t>
+  </si>
+  <si>
+    <t>El Sadar</t>
+  </si>
+  <si>
+    <t>Roberto Torres</t>
+  </si>
+  <si>
+    <t>Chimy Ávila</t>
+  </si>
+  <si>
+    <t>David García</t>
+  </si>
+  <si>
+    <t>Getafe CF</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Coliseum Alfonso Pérez</t>
+  </si>
+  <si>
+    <t>Ángel Rodríguez</t>
+  </si>
+  <si>
+    <t>Nemanja Maksimovic</t>
+  </si>
+  <si>
+    <t>Damián Suárez</t>
+  </si>
+  <si>
+    <t>UD Almería</t>
+  </si>
+  <si>
+    <t>Almería</t>
+  </si>
+  <si>
+    <t>Estadio de los Juegos Mediterráneos</t>
+  </si>
+  <si>
+    <t>Umar Sadiq</t>
+  </si>
+  <si>
+    <t>Samú Costa</t>
+  </si>
+  <si>
+    <t>Nikola Maraš</t>
+  </si>
+  <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>José Zorrilla</t>
+  </si>
+  <si>
+    <t>Shon Weissman</t>
+  </si>
+  <si>
+    <t>Roque Mesa</t>
+  </si>
+  <si>
+    <t>Joaquín Fernández</t>
+  </si>
+  <si>
+    <t>Bryan Gil</t>
   </si>
 </sst>
 </file>
@@ -170,19 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.3828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.68359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.70703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.2265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.88671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="20.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -256,160 +457,160 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>50.0</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>48.0</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -417,25 +618,945 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>5.0</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>10.0</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/EquiposFutbol/Equipos_Jugadores.xlsx
+++ b/EquiposFutbol/Equipos_Jugadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="291">
   <si>
     <t>ID Equipo</t>
   </si>
@@ -35,6 +35,81 @@
     <t>Posición</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Santiago Bernabéu</t>
+  </si>
+  <si>
+    <t>Karim Benzema</t>
+  </si>
+  <si>
+    <t>Delantero</t>
+  </si>
+  <si>
+    <t>Luka Modric</t>
+  </si>
+  <si>
+    <t>Centrocampista</t>
+  </si>
+  <si>
+    <t>Sergio Ramos</t>
+  </si>
+  <si>
+    <t>Defensa</t>
+  </si>
+  <si>
+    <t>Thibaut Courtois</t>
+  </si>
+  <si>
+    <t>Portero</t>
+  </si>
+  <si>
+    <t>Toni Kroos</t>
+  </si>
+  <si>
+    <t>Federico Valverde</t>
+  </si>
+  <si>
+    <t>Dani Carvajal</t>
+  </si>
+  <si>
+    <t>Éder Militão</t>
+  </si>
+  <si>
+    <t>Vinícius Jr.</t>
+  </si>
+  <si>
+    <t>Casemiro</t>
+  </si>
+  <si>
+    <t>Luis Suárez</t>
+  </si>
+  <si>
+    <t>Eden Hazard</t>
+  </si>
+  <si>
+    <t>Marco Asensio</t>
+  </si>
+  <si>
+    <t>Gareth Bale</t>
+  </si>
+  <si>
+    <t>João Cancelo</t>
+  </si>
+  <si>
+    <t>Ferland Mendy</t>
+  </si>
+  <si>
+    <t>Rodrygo Goes</t>
+  </si>
+  <si>
+    <t>Martin Ødegaard</t>
+  </si>
+  <si>
     <t>FC Barcelona</t>
   </si>
   <si>
@@ -44,67 +119,112 @@
     <t>Camp Nou</t>
   </si>
   <si>
+    <t>Nélson Semedo</t>
+  </si>
+  <si>
+    <t>Miralem Pjanic</t>
+  </si>
+  <si>
+    <t>Ousmane Dembélé</t>
+  </si>
+  <si>
+    <t>Marc-André ter Stegen</t>
+  </si>
+  <si>
+    <t>Clément Lenglet</t>
+  </si>
+  <si>
+    <t>Sergiño Dest</t>
+  </si>
+  <si>
+    <t>Frankie de Jong</t>
+  </si>
+  <si>
+    <t>Ansu Fati</t>
+  </si>
+  <si>
+    <t>Jordi Alba</t>
+  </si>
+  <si>
+    <t>Pedri</t>
+  </si>
+  <si>
+    <t>Memphis Depay</t>
+  </si>
+  <si>
+    <t>Frenkie de Jong</t>
+  </si>
+  <si>
+    <t>Sergi Roberto</t>
+  </si>
+  <si>
     <t>Lionel Messi</t>
   </si>
   <si>
-    <t>Delantero</t>
+    <t>Gerard Piqué</t>
   </si>
   <si>
     <t>Sergio Busquets</t>
   </si>
   <si>
-    <t>Centrocampista</t>
-  </si>
-  <si>
-    <t>Gerard Piqué</t>
-  </si>
-  <si>
-    <t>Defensa</t>
-  </si>
-  <si>
-    <t>Ansu Fati</t>
-  </si>
-  <si>
-    <t>Frenkie de Jong</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Santiago Bernabéu</t>
-  </si>
-  <si>
-    <t>Karim Benzema</t>
-  </si>
-  <si>
-    <t>Luka Modric</t>
-  </si>
-  <si>
-    <t>Sergio Ramos</t>
-  </si>
-  <si>
-    <t>Isco Alarcón</t>
-  </si>
-  <si>
     <t>Atlético Madrid</t>
   </si>
   <si>
     <t>Wanda Metropolitano</t>
   </si>
   <si>
+    <t>João Félix</t>
+  </si>
+  <si>
     <t>Koke</t>
   </si>
   <si>
     <t>Jan Oblak</t>
   </si>
   <si>
-    <t>Portero</t>
-  </si>
-  <si>
-    <t>João Félix</t>
+    <t>Yannick Carrasco</t>
+  </si>
+  <si>
+    <t>Saúl Ñíguez</t>
+  </si>
+  <si>
+    <t>Stefan Savic</t>
+  </si>
+  <si>
+    <t>Isaac Cuenca</t>
+  </si>
+  <si>
+    <t>Antoine Griezmann</t>
+  </si>
+  <si>
+    <t>Ángel Correa</t>
+  </si>
+  <si>
+    <t>Thomas Lemar</t>
+  </si>
+  <si>
+    <t>Renan Lodi</t>
+  </si>
+  <si>
+    <t>José Giménez</t>
+  </si>
+  <si>
+    <t>Lucas Torreira</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Kieran Trippier</t>
+  </si>
+  <si>
+    <t>Diego Costa</t>
+  </si>
+  <si>
+    <t>Sime Vrsaljko</t>
+  </si>
+  <si>
+    <t>Mario Hermoso</t>
   </si>
   <si>
     <t>Sevilla FC</t>
@@ -116,13 +236,49 @@
     <t>Ramón Sánchez Pizjuán</t>
   </si>
   <si>
+    <t>Rafa Mir</t>
+  </si>
+  <si>
+    <t>Erick Lamela</t>
+  </si>
+  <si>
+    <t>Gonzalo Montiel</t>
+  </si>
+  <si>
+    <t>Suso</t>
+  </si>
+  <si>
+    <t>Rakitic</t>
+  </si>
+  <si>
+    <t>Youssef En-Nesyri</t>
+  </si>
+  <si>
+    <t>Munir</t>
+  </si>
+  <si>
+    <t>Tomás Rincón</t>
+  </si>
+  <si>
+    <t>Jesús Manuel Corona</t>
+  </si>
+  <si>
+    <t>Marko Dmitrovic</t>
+  </si>
+  <si>
+    <t>Jules Koundé</t>
+  </si>
+  <si>
+    <t>Joan Jordán</t>
+  </si>
+  <si>
+    <t>Ivan Rakitic</t>
+  </si>
+  <si>
     <t>Jesús Navas</t>
   </si>
   <si>
-    <t>Youssef En-Nesyri</t>
-  </si>
-  <si>
-    <t>Ivan Rakitic</t>
+    <t>Lucas Ocampos</t>
   </si>
   <si>
     <t>Valencia CF</t>
@@ -134,13 +290,58 @@
     <t>Mestalla</t>
   </si>
   <si>
+    <t>Gonçalo Guedes</t>
+  </si>
+  <si>
+    <t>Carlos Soler</t>
+  </si>
+  <si>
+    <t>Gabriel Paulista</t>
+  </si>
+  <si>
+    <t>Maxi Gómez</t>
+  </si>
+  <si>
+    <t>Dani Parejo</t>
+  </si>
+  <si>
     <t>José Gayà</t>
   </si>
   <si>
-    <t>Carlos Soler</t>
-  </si>
-  <si>
-    <t>Maxi Gómez</t>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Héctor Herrera</t>
+  </si>
+  <si>
+    <t>Thierry Correia</t>
+  </si>
+  <si>
+    <t>Maximiliano Gómez</t>
+  </si>
+  <si>
+    <t>Jaume Domènech</t>
+  </si>
+  <si>
+    <t>Daniel Wass</t>
+  </si>
+  <si>
+    <t>Mouctar Diakhaby</t>
+  </si>
+  <si>
+    <t>Kevin Gameiro</t>
+  </si>
+  <si>
+    <t>Manu Vallejo</t>
+  </si>
+  <si>
+    <t>Deyverson</t>
+  </si>
+  <si>
+    <t>Kang-in Lee</t>
+  </si>
+  <si>
+    <t>Diakhaby</t>
   </si>
   <si>
     <t>Real Betis</t>
@@ -152,13 +353,115 @@
     <t>Nabil Fekir</t>
   </si>
   <si>
+    <t>Sidnei</t>
+  </si>
+  <si>
+    <t>Marc Bartra</t>
+  </si>
+  <si>
+    <t>Javi Martínez</t>
+  </si>
+  <si>
+    <t>Christian Tello</t>
+  </si>
+  <si>
+    <t>William Carvalho</t>
+  </si>
+  <si>
+    <t>Guido Rodríguez</t>
+  </si>
+  <si>
+    <t>Cristian Tello</t>
+  </si>
+  <si>
+    <t>Álex Moreno</t>
+  </si>
+  <si>
+    <t>Borja Iglesias</t>
+  </si>
+  <si>
     <t>Sergio Canales</t>
   </si>
   <si>
-    <t>Marc Bartra</t>
-  </si>
-  <si>
-    <t>Hatem Ben Arfa</t>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>San Mamés</t>
+  </si>
+  <si>
+    <t>Iker Muniain</t>
+  </si>
+  <si>
+    <t>Raúl García</t>
+  </si>
+  <si>
+    <t>Iñaki Williams</t>
+  </si>
+  <si>
+    <t>Unai López</t>
+  </si>
+  <si>
+    <t>Íñigo Martínez</t>
+  </si>
+  <si>
+    <t>Unai Simón</t>
+  </si>
+  <si>
+    <t>Yuri Berchiche</t>
+  </si>
+  <si>
+    <t>Óscar de Marcos</t>
+  </si>
+  <si>
+    <t>Dani García</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>San Sebastián</t>
+  </si>
+  <si>
+    <t>Anoeta</t>
+  </si>
+  <si>
+    <t>Ander Guevara</t>
+  </si>
+  <si>
+    <t>Robin Le Normand</t>
+  </si>
+  <si>
+    <t>Alexander Isak</t>
+  </si>
+  <si>
+    <t>Mikel Merino</t>
+  </si>
+  <si>
+    <t>Portu</t>
+  </si>
+  <si>
+    <t>Adnan Januzaj</t>
+  </si>
+  <si>
+    <t>Mikel Oyarzabal</t>
+  </si>
+  <si>
+    <t>David Silva</t>
+  </si>
+  <si>
+    <t>Asier Illarramendi</t>
+  </si>
+  <si>
+    <t>Ander Barrenetxea</t>
+  </si>
+  <si>
+    <t>Igor Zubeldia</t>
+  </si>
+  <si>
+    <t>Álex Remiro</t>
   </si>
   <si>
     <t>Villarreal CF</t>
@@ -170,58 +473,94 @@
     <t>Estadio de la Cerámica</t>
   </si>
   <si>
+    <t>Paco Alcácer</t>
+  </si>
+  <si>
+    <t>Juan Foyth</t>
+  </si>
+  <si>
+    <t>Jaume Costa</t>
+  </si>
+  <si>
     <t>Gerard Moreno</t>
   </si>
   <si>
     <t>Pau Torres</t>
   </si>
   <si>
-    <t>Daniel Parejo</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Bilbao</t>
-  </si>
-  <si>
-    <t>San Mamés</t>
-  </si>
-  <si>
-    <t>Iker Muniain</t>
-  </si>
-  <si>
-    <t>Iñaki Williams</t>
-  </si>
-  <si>
-    <t>Yeray Álvarez</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>San Sebastián</t>
-  </si>
-  <si>
-    <t>Reale Arena</t>
-  </si>
-  <si>
-    <t>Mikel Oyarzabal</t>
-  </si>
-  <si>
-    <t>David Silva</t>
-  </si>
-  <si>
-    <t>Mikel Merino</t>
-  </si>
-  <si>
-    <t>RC Celta de Vigo</t>
+    <t>Étienne Capoue</t>
+  </si>
+  <si>
+    <t>Raúl Albiol</t>
+  </si>
+  <si>
+    <t>Alberto Moreno</t>
+  </si>
+  <si>
+    <t>Mario Gaspar</t>
+  </si>
+  <si>
+    <t>Pervis Estupiñán</t>
+  </si>
+  <si>
+    <t>Javier Ontiveros</t>
+  </si>
+  <si>
+    <t>Moi Gómez</t>
+  </si>
+  <si>
+    <t>Getafe CF</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Coliseum Alfonso Pérez</t>
+  </si>
+  <si>
+    <t>Cucho Hernández</t>
+  </si>
+  <si>
+    <t>Mauro Arambarri</t>
+  </si>
+  <si>
+    <t>Erick Cabaco</t>
+  </si>
+  <si>
+    <t>Rubén Peña</t>
+  </si>
+  <si>
+    <t>Allan-Roméo Nyom</t>
+  </si>
+  <si>
+    <t>Damián Suárez</t>
+  </si>
+  <si>
+    <t>Djené Dakonam</t>
+  </si>
+  <si>
+    <t>Jaime Mata</t>
+  </si>
+  <si>
+    <t>Marc Cucurella</t>
+  </si>
+  <si>
+    <t>Nemanja Maksimovic</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>RC Celta</t>
   </si>
   <si>
     <t>Vigo</t>
   </si>
   <si>
-    <t>Balaídos</t>
+    <t>Abanca-Balaídos</t>
   </si>
   <si>
     <t>Iago Aspas</t>
@@ -233,21 +572,102 @@
     <t>Hugo Mallo</t>
   </si>
   <si>
+    <t>Santi Mina</t>
+  </si>
+  <si>
+    <t>Jeison Murillo</t>
+  </si>
+  <si>
+    <t>Oscar Rodríguez</t>
+  </si>
+  <si>
+    <t>Rafinha</t>
+  </si>
+  <si>
+    <t>Joseph Aidoo</t>
+  </si>
+  <si>
+    <t>Renato Tapia</t>
+  </si>
+  <si>
+    <t>Néstor Araujo</t>
+  </si>
+  <si>
     <t>RCD Espanyol</t>
   </si>
   <si>
     <t>RCDE Stadium</t>
   </si>
   <si>
+    <t>Wu Lei</t>
+  </si>
+  <si>
+    <t>Keidi Bare</t>
+  </si>
+  <si>
+    <t>Fernando Calero</t>
+  </si>
+  <si>
+    <t>Adri Embarba</t>
+  </si>
+  <si>
     <t>Raúl de Tomás</t>
   </si>
   <si>
-    <t>Adri Embarba</t>
-  </si>
-  <si>
     <t>Leandro Cabrera</t>
   </si>
   <si>
+    <t>David López</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Nuevo Estadio de Los Cármenes</t>
+  </si>
+  <si>
+    <t>Sergi Gómez</t>
+  </si>
+  <si>
+    <t>Cristhian Stuani</t>
+  </si>
+  <si>
+    <t>Jorge Molina</t>
+  </si>
+  <si>
+    <t>Roberto Soldado</t>
+  </si>
+  <si>
+    <t>Darwin Machís</t>
+  </si>
+  <si>
+    <t>Domingos Duarte</t>
+  </si>
+  <si>
+    <t>German Sánchez</t>
+  </si>
+  <si>
+    <t>Soldado</t>
+  </si>
+  <si>
+    <t>Germán Sánchez</t>
+  </si>
+  <si>
+    <t>Kenedy</t>
+  </si>
+  <si>
+    <t>Rubén Rochina</t>
+  </si>
+  <si>
+    <t>Ángel Montoro</t>
+  </si>
+  <si>
+    <t>Yangel Herrera</t>
+  </si>
+  <si>
     <t>CA Osasuna</t>
   </si>
   <si>
@@ -257,49 +677,40 @@
     <t>El Sadar</t>
   </si>
   <si>
-    <t>Roberto Torres</t>
+    <t>Jonathan Calleri</t>
+  </si>
+  <si>
+    <t>Jon Moncayola</t>
+  </si>
+  <si>
+    <t>Aridane Hernández</t>
+  </si>
+  <si>
+    <t>Kike García</t>
+  </si>
+  <si>
+    <t>Lucas Torró</t>
+  </si>
+  <si>
+    <t>Nacho Vidal</t>
+  </si>
+  <si>
+    <t>Kike Barja</t>
+  </si>
+  <si>
+    <t>David García</t>
+  </si>
+  <si>
+    <t>Ante Budimir</t>
+  </si>
+  <si>
+    <t>Ruben García</t>
   </si>
   <si>
     <t>Chimy Ávila</t>
   </si>
   <si>
-    <t>David García</t>
-  </si>
-  <si>
-    <t>Getafe CF</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Coliseum Alfonso Pérez</t>
-  </si>
-  <si>
-    <t>Ángel Rodríguez</t>
-  </si>
-  <si>
-    <t>Nemanja Maksimovic</t>
-  </si>
-  <si>
-    <t>Damián Suárez</t>
-  </si>
-  <si>
-    <t>UD Almería</t>
-  </si>
-  <si>
-    <t>Almería</t>
-  </si>
-  <si>
-    <t>Estadio de los Juegos Mediterráneos</t>
-  </si>
-  <si>
-    <t>Umar Sadiq</t>
-  </si>
-  <si>
-    <t>Samú Costa</t>
-  </si>
-  <si>
-    <t>Nikola Maraš</t>
+    <t>Rubén García</t>
   </si>
   <si>
     <t>Real Valladolid</t>
@@ -308,7 +719,7 @@
     <t>Valladolid</t>
   </si>
   <si>
-    <t>José Zorrilla</t>
+    <t>Estadio José Zorrilla</t>
   </si>
   <si>
     <t>Shon Weissman</t>
@@ -320,7 +731,160 @@
     <t>Joaquín Fernández</t>
   </si>
   <si>
+    <t>Javi Sánchez</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Estadio Ciudad de Valencia</t>
+  </si>
+  <si>
+    <t>José Luis Morales</t>
+  </si>
+  <si>
+    <t>Rochina</t>
+  </si>
+  <si>
+    <t>Vukcevic</t>
+  </si>
+  <si>
+    <t>Enis Bardhi</t>
+  </si>
+  <si>
+    <t>Rúben Vezo</t>
+  </si>
+  <si>
+    <t>Roger Martí</t>
+  </si>
+  <si>
+    <t>Sergio León</t>
+  </si>
+  <si>
+    <t>Radoja</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Vitoria-Gasteiz</t>
+  </si>
+  <si>
+    <t>Mendizorrotza</t>
+  </si>
+  <si>
+    <t>Luis Rioja</t>
+  </si>
+  <si>
+    <t>Pina</t>
+  </si>
+  <si>
+    <t>Ximo Navarro</t>
+  </si>
+  <si>
+    <t>Lucas Pérez</t>
+  </si>
+  <si>
+    <t>Josan Ferrández</t>
+  </si>
+  <si>
+    <t>Gonzalo Verdú</t>
+  </si>
+  <si>
+    <t>Rubén Duarte</t>
+  </si>
+  <si>
+    <t>Joselu</t>
+  </si>
+  <si>
+    <t>Víctor Laguardia</t>
+  </si>
+  <si>
+    <t>Manu García</t>
+  </si>
+  <si>
+    <t>RCD Mallorca</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Son Moix</t>
+  </si>
+  <si>
+    <t>Dani Rodríguez</t>
+  </si>
+  <si>
+    <t>Fran Gámez</t>
+  </si>
+  <si>
+    <t>Aleksandar Sedlar</t>
+  </si>
+  <si>
+    <t>Salva Sevilla</t>
+  </si>
+  <si>
+    <t>Manolo Reina</t>
+  </si>
+  <si>
+    <t>Pablo Maffeo</t>
+  </si>
+  <si>
+    <t>Álex Alegría</t>
+  </si>
+  <si>
+    <t>Ruíz de Galarreta</t>
+  </si>
+  <si>
+    <t>Antonio Sánchez</t>
+  </si>
+  <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Ipurua</t>
+  </si>
+  <si>
+    <t>Salvador Sánchez</t>
+  </si>
+  <si>
+    <t>Pedro León</t>
+  </si>
+  <si>
     <t>Bryan Gil</t>
+  </si>
+  <si>
+    <t>Paulo Oliveira</t>
+  </si>
+  <si>
+    <t>Cádiz CF</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Nuevo Mirandilla</t>
+  </si>
+  <si>
+    <t>Álvaro Negredo</t>
+  </si>
+  <si>
+    <t>Jon Ander Garrido</t>
+  </si>
+  <si>
+    <t>Juan Cala</t>
+  </si>
+  <si>
+    <t>Salvi Sánchez</t>
+  </si>
+  <si>
+    <t>Fali</t>
+  </si>
+  <si>
+    <t>ad</t>
   </si>
 </sst>
 </file>
@@ -371,18 +935,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="33.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.19140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="29.546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.70703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="20.2421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.5078125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -492,13 +1056,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0</v>
+        <v>105.0</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -515,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>50.0</v>
+        <v>106.0</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -526,68 +1090,68 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>70.0</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -595,45 +1159,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>48.0</v>
+        <v>71.0</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>72.0</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -641,45 +1205,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>8.0</v>
+        <v>201.0</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -687,45 +1251,45 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>10.0</v>
+        <v>203.0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>11.0</v>
+        <v>204.0</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -733,45 +1297,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.0</v>
+        <v>168.0</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>13.0</v>
+        <v>169.0</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -779,91 +1343,91 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>14.0</v>
+        <v>170.0</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>15.0</v>
+        <v>171.0</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E20" t="n">
-        <v>16.0</v>
+        <v>178.0</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>17.0</v>
+        <v>179.0</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -871,91 +1435,91 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>18.0</v>
+        <v>180.0</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
-        <v>47.0</v>
+        <v>205.0</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>19.0</v>
+        <v>206.0</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>20.0</v>
+        <v>207.0</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
@@ -963,22 +1527,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>21.0</v>
+        <v>208.0</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -986,22 +1550,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>22.0</v>
+        <v>67.0</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1009,22 +1573,22 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>23.0</v>
+        <v>68.0</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1032,22 +1596,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
-        <v>24.0</v>
+        <v>69.0</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
@@ -1055,68 +1619,68 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
-        <v>26.0</v>
+        <v>102.0</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>27.0</v>
+        <v>103.0</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1124,68 +1688,68 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
-        <v>28.0</v>
+        <v>104.0</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
@@ -1193,114 +1757,114 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E36" t="n">
-        <v>31.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E37" t="n">
-        <v>32.0</v>
+        <v>7.0</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E38" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E39" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E40" t="n">
-        <v>35.0</v>
+        <v>109.0</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1308,114 +1872,114 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E41" t="n">
-        <v>36.0</v>
+        <v>110.0</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E42" t="n">
-        <v>37.0</v>
+        <v>111.0</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E43" t="n">
-        <v>38.0</v>
+        <v>163.0</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E45" t="n">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -1423,22 +1987,22 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E46" t="n">
-        <v>41.0</v>
+        <v>66.0</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1446,22 +2010,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E47" t="n">
-        <v>42.0</v>
+        <v>209.0</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
@@ -1469,45 +2033,45 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E48" t="n">
-        <v>43.0</v>
+        <v>210.0</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>44.0</v>
+        <v>211.0</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1515,22 +2079,22 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E50" t="n">
-        <v>45.0</v>
+        <v>166.0</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -1538,26 +2102,5837 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" t="n">
         <v>15.0</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F74" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="F76" t="s">
         <v>96</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="F77" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F78" t="s">
         <v>98</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>113</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>120</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>112</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>121</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>120</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>122</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>128</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>129</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>130</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E121" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>132</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" t="s">
+        <v>125</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>133</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" t="s">
+        <v>125</v>
+      </c>
+      <c r="E124" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>132</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" t="s">
+        <v>125</v>
+      </c>
+      <c r="E125" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>134</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>138</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>140</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>141</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>142</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>143</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>144</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>145</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>139</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>145</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>146</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>147</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>148</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>149</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>153</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>154</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>155</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>156</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>157</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>96</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>151</v>
+      </c>
+      <c r="D147" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>156</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>158</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>159</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>160</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>161</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>162</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" t="s">
+        <v>151</v>
+      </c>
+      <c r="D153" t="s">
+        <v>152</v>
+      </c>
+      <c r="E153" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>163</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
+        <v>151</v>
+      </c>
+      <c r="D154" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>164</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" t="s">
+        <v>151</v>
+      </c>
+      <c r="D155" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>161</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>168</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" t="s">
+        <v>166</v>
+      </c>
+      <c r="D157" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>169</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" t="s">
+        <v>167</v>
+      </c>
+      <c r="E158" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>170</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+      <c r="D159" t="s">
+        <v>167</v>
+      </c>
+      <c r="E159" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>171</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" t="s">
+        <v>167</v>
+      </c>
+      <c r="E160" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>155</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>172</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162" t="s">
+        <v>167</v>
+      </c>
+      <c r="E162" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>173</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" t="s">
+        <v>167</v>
+      </c>
+      <c r="E164" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>174</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>175</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+      <c r="D166" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>176</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>166</v>
+      </c>
+      <c r="D167" t="s">
+        <v>167</v>
+      </c>
+      <c r="E167" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>177</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" t="s">
+        <v>167</v>
+      </c>
+      <c r="E168" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>178</v>
+      </c>
+      <c r="G168" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>166</v>
+      </c>
+      <c r="D169" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>176</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" t="s">
+        <v>166</v>
+      </c>
+      <c r="D170" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="F170" t="s">
+        <v>177</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" t="s">
+        <v>166</v>
+      </c>
+      <c r="D171" t="s">
+        <v>167</v>
+      </c>
+      <c r="E171" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>173</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>183</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>184</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" t="s">
+        <v>182</v>
+      </c>
+      <c r="E174" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>185</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>183</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>184</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" t="s">
+        <v>182</v>
+      </c>
+      <c r="E177" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>185</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>186</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>184</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>187</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>181</v>
+      </c>
+      <c r="D181" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>188</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>181</v>
+      </c>
+      <c r="D182" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>189</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>190</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>186</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>186</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>191</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C187" t="s">
+        <v>181</v>
+      </c>
+      <c r="D187" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>192</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="F188" t="s">
+        <v>195</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>196</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>197</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>198</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" t="s">
+        <v>194</v>
+      </c>
+      <c r="E192" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>199</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>200</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>199</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>198</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>201</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>199</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>198</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" t="s">
+        <v>33</v>
+      </c>
+      <c r="D199" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>201</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" t="s">
+        <v>204</v>
+      </c>
+      <c r="E200" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>205</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D201" t="s">
+        <v>204</v>
+      </c>
+      <c r="E201" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>206</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" t="s">
+        <v>204</v>
+      </c>
+      <c r="E202" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>207</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" t="s">
+        <v>204</v>
+      </c>
+      <c r="E203" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>208</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+      <c r="D204" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>209</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205" t="s">
+        <v>203</v>
+      </c>
+      <c r="D205" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>210</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>202</v>
+      </c>
+      <c r="C206" t="s">
+        <v>203</v>
+      </c>
+      <c r="D206" t="s">
+        <v>204</v>
+      </c>
+      <c r="E206" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>208</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>202</v>
+      </c>
+      <c r="C207" t="s">
+        <v>203</v>
+      </c>
+      <c r="D207" t="s">
+        <v>204</v>
+      </c>
+      <c r="E207" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>209</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" t="s">
+        <v>203</v>
+      </c>
+      <c r="D208" t="s">
+        <v>204</v>
+      </c>
+      <c r="E208" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F208" t="s">
+        <v>211</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>202</v>
+      </c>
+      <c r="C209" t="s">
+        <v>203</v>
+      </c>
+      <c r="D209" t="s">
+        <v>204</v>
+      </c>
+      <c r="E209" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>212</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" t="s">
+        <v>203</v>
+      </c>
+      <c r="D210" t="s">
+        <v>204</v>
+      </c>
+      <c r="E210" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>213</v>
+      </c>
+      <c r="G210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>202</v>
+      </c>
+      <c r="C211" t="s">
+        <v>203</v>
+      </c>
+      <c r="D211" t="s">
+        <v>204</v>
+      </c>
+      <c r="E211" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>214</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>202</v>
+      </c>
+      <c r="C212" t="s">
+        <v>203</v>
+      </c>
+      <c r="D212" t="s">
+        <v>204</v>
+      </c>
+      <c r="E212" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>215</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>202</v>
+      </c>
+      <c r="C213" t="s">
+        <v>203</v>
+      </c>
+      <c r="D213" t="s">
+        <v>204</v>
+      </c>
+      <c r="E213" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>216</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" t="s">
+        <v>204</v>
+      </c>
+      <c r="E214" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>217</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" t="s">
+        <v>219</v>
+      </c>
+      <c r="D215" t="s">
+        <v>220</v>
+      </c>
+      <c r="E215" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>221</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216" t="s">
+        <v>220</v>
+      </c>
+      <c r="E216" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>222</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>223</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+      <c r="E218" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>224</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>218</v>
+      </c>
+      <c r="C219" t="s">
+        <v>219</v>
+      </c>
+      <c r="D219" t="s">
+        <v>220</v>
+      </c>
+      <c r="E219" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>225</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C220" t="s">
+        <v>219</v>
+      </c>
+      <c r="D220" t="s">
+        <v>220</v>
+      </c>
+      <c r="E220" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>226</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>218</v>
+      </c>
+      <c r="C221" t="s">
+        <v>219</v>
+      </c>
+      <c r="D221" t="s">
+        <v>220</v>
+      </c>
+      <c r="E221" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>218</v>
+      </c>
+      <c r="C222" t="s">
+        <v>219</v>
+      </c>
+      <c r="D222" t="s">
+        <v>220</v>
+      </c>
+      <c r="E222" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>227</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C223" t="s">
+        <v>219</v>
+      </c>
+      <c r="D223" t="s">
+        <v>220</v>
+      </c>
+      <c r="E223" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="F223" t="s">
+        <v>228</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>218</v>
+      </c>
+      <c r="C224" t="s">
+        <v>219</v>
+      </c>
+      <c r="D224" t="s">
+        <v>220</v>
+      </c>
+      <c r="E224" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>229</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C225" t="s">
+        <v>219</v>
+      </c>
+      <c r="D225" t="s">
+        <v>220</v>
+      </c>
+      <c r="E225" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>230</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C226" t="s">
+        <v>219</v>
+      </c>
+      <c r="D226" t="s">
+        <v>220</v>
+      </c>
+      <c r="E226" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F226" t="s">
+        <v>228</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>218</v>
+      </c>
+      <c r="C227" t="s">
+        <v>219</v>
+      </c>
+      <c r="D227" t="s">
+        <v>220</v>
+      </c>
+      <c r="E227" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+      <c r="C228" t="s">
+        <v>219</v>
+      </c>
+      <c r="D228" t="s">
+        <v>220</v>
+      </c>
+      <c r="E228" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>226</v>
+      </c>
+      <c r="G228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>218</v>
+      </c>
+      <c r="C229" t="s">
+        <v>219</v>
+      </c>
+      <c r="D229" t="s">
+        <v>220</v>
+      </c>
+      <c r="E229" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="F229" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>234</v>
+      </c>
+      <c r="D230" t="s">
+        <v>235</v>
+      </c>
+      <c r="E230" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F230" t="s">
+        <v>236</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" t="s">
+        <v>235</v>
+      </c>
+      <c r="E231" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>237</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232" t="s">
+        <v>235</v>
+      </c>
+      <c r="E232" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>238</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" t="s">
+        <v>235</v>
+      </c>
+      <c r="E233" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>236</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>234</v>
+      </c>
+      <c r="D234" t="s">
+        <v>235</v>
+      </c>
+      <c r="E234" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>237</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" t="s">
+        <v>234</v>
+      </c>
+      <c r="D235" t="s">
+        <v>235</v>
+      </c>
+      <c r="E235" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>238</v>
+      </c>
+      <c r="G235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>233</v>
+      </c>
+      <c r="C236" t="s">
+        <v>234</v>
+      </c>
+      <c r="D236" t="s">
+        <v>235</v>
+      </c>
+      <c r="E236" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>236</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>233</v>
+      </c>
+      <c r="C237" t="s">
+        <v>234</v>
+      </c>
+      <c r="D237" t="s">
+        <v>235</v>
+      </c>
+      <c r="E237" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>237</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>233</v>
+      </c>
+      <c r="C238" t="s">
+        <v>234</v>
+      </c>
+      <c r="D238" t="s">
+        <v>235</v>
+      </c>
+      <c r="E238" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>239</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" t="s">
+        <v>90</v>
+      </c>
+      <c r="D239" t="s">
+        <v>241</v>
+      </c>
+      <c r="E239" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>242</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240" t="s">
+        <v>90</v>
+      </c>
+      <c r="D240" t="s">
+        <v>241</v>
+      </c>
+      <c r="E240" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>243</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" t="s">
+        <v>90</v>
+      </c>
+      <c r="D241" t="s">
+        <v>241</v>
+      </c>
+      <c r="E241" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>240</v>
+      </c>
+      <c r="C242" t="s">
+        <v>90</v>
+      </c>
+      <c r="D242" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>242</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>240</v>
+      </c>
+      <c r="C243" t="s">
+        <v>90</v>
+      </c>
+      <c r="D243" t="s">
+        <v>241</v>
+      </c>
+      <c r="E243" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>245</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>240</v>
+      </c>
+      <c r="C244" t="s">
+        <v>90</v>
+      </c>
+      <c r="D244" t="s">
+        <v>241</v>
+      </c>
+      <c r="E244" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>246</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" t="s">
+        <v>90</v>
+      </c>
+      <c r="D245" t="s">
+        <v>241</v>
+      </c>
+      <c r="E245" t="n">
         <v>46.0</v>
       </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
+      <c r="F245" t="s">
+        <v>242</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>240</v>
+      </c>
+      <c r="C246" t="s">
+        <v>90</v>
+      </c>
+      <c r="D246" t="s">
+        <v>241</v>
+      </c>
+      <c r="E246" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>245</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>240</v>
+      </c>
+      <c r="C247" t="s">
+        <v>90</v>
+      </c>
+      <c r="D247" t="s">
+        <v>241</v>
+      </c>
+      <c r="E247" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>246</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>240</v>
+      </c>
+      <c r="C248" t="s">
+        <v>90</v>
+      </c>
+      <c r="D248" t="s">
+        <v>241</v>
+      </c>
+      <c r="E248" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>247</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>240</v>
+      </c>
+      <c r="C249" t="s">
+        <v>90</v>
+      </c>
+      <c r="D249" t="s">
+        <v>241</v>
+      </c>
+      <c r="E249" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>248</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>240</v>
+      </c>
+      <c r="C250" t="s">
+        <v>90</v>
+      </c>
+      <c r="D250" t="s">
+        <v>241</v>
+      </c>
+      <c r="E250" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="F250" t="s">
+        <v>249</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>250</v>
+      </c>
+      <c r="C251" t="s">
+        <v>251</v>
+      </c>
+      <c r="D251" t="s">
+        <v>252</v>
+      </c>
+      <c r="E251" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>253</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>250</v>
+      </c>
+      <c r="C252" t="s">
+        <v>251</v>
+      </c>
+      <c r="D252" t="s">
+        <v>252</v>
+      </c>
+      <c r="E252" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>254</v>
+      </c>
+      <c r="G252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>250</v>
+      </c>
+      <c r="C253" t="s">
+        <v>251</v>
+      </c>
+      <c r="D253" t="s">
+        <v>252</v>
+      </c>
+      <c r="E253" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="F253" t="s">
+        <v>255</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" t="s">
+        <v>251</v>
+      </c>
+      <c r="D254" t="s">
+        <v>252</v>
+      </c>
+      <c r="E254" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="F254" t="s">
+        <v>256</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>250</v>
+      </c>
+      <c r="C255" t="s">
+        <v>251</v>
+      </c>
+      <c r="D255" t="s">
+        <v>252</v>
+      </c>
+      <c r="E255" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>257</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>250</v>
+      </c>
+      <c r="C256" t="s">
+        <v>251</v>
+      </c>
+      <c r="D256" t="s">
+        <v>252</v>
+      </c>
+      <c r="E256" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>258</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" t="s">
+        <v>251</v>
+      </c>
+      <c r="D257" t="s">
+        <v>252</v>
+      </c>
+      <c r="E257" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>256</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" t="s">
+        <v>251</v>
+      </c>
+      <c r="D258" t="s">
+        <v>252</v>
+      </c>
+      <c r="E258" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F258" t="s">
+        <v>255</v>
+      </c>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>250</v>
+      </c>
+      <c r="C259" t="s">
+        <v>251</v>
+      </c>
+      <c r="D259" t="s">
+        <v>252</v>
+      </c>
+      <c r="E259" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="F259" t="s">
+        <v>259</v>
+      </c>
+      <c r="G259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>250</v>
+      </c>
+      <c r="C260" t="s">
+        <v>251</v>
+      </c>
+      <c r="D260" t="s">
+        <v>252</v>
+      </c>
+      <c r="E260" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F260" t="s">
+        <v>260</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" t="s">
+        <v>251</v>
+      </c>
+      <c r="D261" t="s">
+        <v>252</v>
+      </c>
+      <c r="E261" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>253</v>
+      </c>
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>250</v>
+      </c>
+      <c r="C262" t="s">
+        <v>251</v>
+      </c>
+      <c r="D262" t="s">
+        <v>252</v>
+      </c>
+      <c r="E262" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F262" t="s">
+        <v>261</v>
+      </c>
+      <c r="G262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>250</v>
+      </c>
+      <c r="C263" t="s">
+        <v>251</v>
+      </c>
+      <c r="D263" t="s">
+        <v>252</v>
+      </c>
+      <c r="E263" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F263" t="s">
+        <v>260</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>250</v>
+      </c>
+      <c r="C264" t="s">
+        <v>251</v>
+      </c>
+      <c r="D264" t="s">
+        <v>252</v>
+      </c>
+      <c r="E264" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>253</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>250</v>
+      </c>
+      <c r="C265" t="s">
+        <v>251</v>
+      </c>
+      <c r="D265" t="s">
+        <v>252</v>
+      </c>
+      <c r="E265" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="F265" t="s">
+        <v>261</v>
+      </c>
+      <c r="G265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C266" t="s">
+        <v>251</v>
+      </c>
+      <c r="D266" t="s">
+        <v>252</v>
+      </c>
+      <c r="E266" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>260</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267" t="s">
+        <v>251</v>
+      </c>
+      <c r="D267" t="s">
+        <v>252</v>
+      </c>
+      <c r="E267" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>253</v>
+      </c>
+      <c r="G267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C268" t="s">
+        <v>251</v>
+      </c>
+      <c r="D268" t="s">
+        <v>252</v>
+      </c>
+      <c r="E268" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>262</v>
+      </c>
+      <c r="G268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>263</v>
+      </c>
+      <c r="C269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D269" t="s">
+        <v>265</v>
+      </c>
+      <c r="E269" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="F269" t="s">
+        <v>266</v>
+      </c>
+      <c r="G269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>263</v>
+      </c>
+      <c r="C270" t="s">
+        <v>264</v>
+      </c>
+      <c r="D270" t="s">
+        <v>265</v>
+      </c>
+      <c r="E270" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="F270" t="s">
+        <v>267</v>
+      </c>
+      <c r="G270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C271" t="s">
+        <v>264</v>
+      </c>
+      <c r="D271" t="s">
+        <v>265</v>
+      </c>
+      <c r="E271" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>268</v>
+      </c>
+      <c r="G271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>263</v>
+      </c>
+      <c r="C272" t="s">
+        <v>264</v>
+      </c>
+      <c r="D272" t="s">
+        <v>265</v>
+      </c>
+      <c r="E272" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="F272" t="s">
+        <v>269</v>
+      </c>
+      <c r="G272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>263</v>
+      </c>
+      <c r="C273" t="s">
+        <v>264</v>
+      </c>
+      <c r="D273" t="s">
+        <v>265</v>
+      </c>
+      <c r="E273" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>266</v>
+      </c>
+      <c r="G273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>263</v>
+      </c>
+      <c r="C274" t="s">
+        <v>264</v>
+      </c>
+      <c r="D274" t="s">
+        <v>265</v>
+      </c>
+      <c r="E274" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>270</v>
+      </c>
+      <c r="G274" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>263</v>
+      </c>
+      <c r="C275" t="s">
+        <v>264</v>
+      </c>
+      <c r="D275" t="s">
+        <v>265</v>
+      </c>
+      <c r="E275" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>269</v>
+      </c>
+      <c r="G275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C276" t="s">
+        <v>264</v>
+      </c>
+      <c r="D276" t="s">
+        <v>265</v>
+      </c>
+      <c r="E276" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F276" t="s">
+        <v>266</v>
+      </c>
+      <c r="G276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>263</v>
+      </c>
+      <c r="C277" t="s">
+        <v>264</v>
+      </c>
+      <c r="D277" t="s">
+        <v>265</v>
+      </c>
+      <c r="E277" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>270</v>
+      </c>
+      <c r="G277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>263</v>
+      </c>
+      <c r="C278" t="s">
+        <v>264</v>
+      </c>
+      <c r="D278" t="s">
+        <v>265</v>
+      </c>
+      <c r="E278" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>271</v>
+      </c>
+      <c r="G278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>263</v>
+      </c>
+      <c r="C279" t="s">
+        <v>264</v>
+      </c>
+      <c r="D279" t="s">
+        <v>265</v>
+      </c>
+      <c r="E279" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>272</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>263</v>
+      </c>
+      <c r="C280" t="s">
+        <v>264</v>
+      </c>
+      <c r="D280" t="s">
+        <v>265</v>
+      </c>
+      <c r="E280" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F280" t="s">
+        <v>269</v>
+      </c>
+      <c r="G280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>263</v>
+      </c>
+      <c r="C281" t="s">
+        <v>264</v>
+      </c>
+      <c r="D281" t="s">
+        <v>265</v>
+      </c>
+      <c r="E281" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="F281" t="s">
+        <v>273</v>
+      </c>
+      <c r="G281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>263</v>
+      </c>
+      <c r="C282" t="s">
+        <v>264</v>
+      </c>
+      <c r="D282" t="s">
+        <v>265</v>
+      </c>
+      <c r="E282" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="F282" t="s">
+        <v>274</v>
+      </c>
+      <c r="G282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>275</v>
+      </c>
+      <c r="C283" t="s">
+        <v>276</v>
+      </c>
+      <c r="D283" t="s">
+        <v>277</v>
+      </c>
+      <c r="E283" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="F283" t="s">
+        <v>278</v>
+      </c>
+      <c r="G283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>275</v>
+      </c>
+      <c r="C284" t="s">
+        <v>276</v>
+      </c>
+      <c r="D284" t="s">
+        <v>277</v>
+      </c>
+      <c r="E284" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F284" t="s">
+        <v>279</v>
+      </c>
+      <c r="G284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>275</v>
+      </c>
+      <c r="C285" t="s">
+        <v>276</v>
+      </c>
+      <c r="D285" t="s">
+        <v>277</v>
+      </c>
+      <c r="E285" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F285" t="s">
+        <v>224</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>275</v>
+      </c>
+      <c r="C286" t="s">
+        <v>276</v>
+      </c>
+      <c r="D286" t="s">
+        <v>277</v>
+      </c>
+      <c r="E286" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F286" t="s">
+        <v>280</v>
+      </c>
+      <c r="G286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>275</v>
+      </c>
+      <c r="C287" t="s">
+        <v>276</v>
+      </c>
+      <c r="D287" t="s">
+        <v>277</v>
+      </c>
+      <c r="E287" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F287" t="s">
+        <v>281</v>
+      </c>
+      <c r="G287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>275</v>
+      </c>
+      <c r="C288" t="s">
+        <v>276</v>
+      </c>
+      <c r="D288" t="s">
+        <v>277</v>
+      </c>
+      <c r="E288" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>224</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>275</v>
+      </c>
+      <c r="C289" t="s">
+        <v>276</v>
+      </c>
+      <c r="D289" t="s">
+        <v>277</v>
+      </c>
+      <c r="E289" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>280</v>
+      </c>
+      <c r="G289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>275</v>
+      </c>
+      <c r="C290" t="s">
+        <v>276</v>
+      </c>
+      <c r="D290" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F290" t="s">
+        <v>281</v>
+      </c>
+      <c r="G290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>275</v>
+      </c>
+      <c r="C291" t="s">
+        <v>276</v>
+      </c>
+      <c r="D291" t="s">
+        <v>277</v>
+      </c>
+      <c r="E291" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="F291" t="s">
+        <v>224</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>275</v>
+      </c>
+      <c r="C292" t="s">
+        <v>276</v>
+      </c>
+      <c r="D292" t="s">
+        <v>277</v>
+      </c>
+      <c r="E292" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>279</v>
+      </c>
+      <c r="G292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>275</v>
+      </c>
+      <c r="C293" t="s">
+        <v>276</v>
+      </c>
+      <c r="D293" t="s">
+        <v>277</v>
+      </c>
+      <c r="E293" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>281</v>
+      </c>
+      <c r="G293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" t="s">
+        <v>283</v>
+      </c>
+      <c r="D294" t="s">
+        <v>284</v>
+      </c>
+      <c r="E294" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="F294" t="s">
+        <v>285</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>282</v>
+      </c>
+      <c r="C295" t="s">
+        <v>283</v>
+      </c>
+      <c r="D295" t="s">
+        <v>284</v>
+      </c>
+      <c r="E295" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="F295" t="s">
+        <v>286</v>
+      </c>
+      <c r="G295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>282</v>
+      </c>
+      <c r="C296" t="s">
+        <v>283</v>
+      </c>
+      <c r="D296" t="s">
+        <v>284</v>
+      </c>
+      <c r="E296" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="F296" t="s">
+        <v>287</v>
+      </c>
+      <c r="G296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" t="s">
+        <v>283</v>
+      </c>
+      <c r="D297" t="s">
+        <v>284</v>
+      </c>
+      <c r="E297" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>285</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>282</v>
+      </c>
+      <c r="C298" t="s">
+        <v>283</v>
+      </c>
+      <c r="D298" t="s">
+        <v>284</v>
+      </c>
+      <c r="E298" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>288</v>
+      </c>
+      <c r="G298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>282</v>
+      </c>
+      <c r="C299" t="s">
+        <v>283</v>
+      </c>
+      <c r="D299" t="s">
+        <v>284</v>
+      </c>
+      <c r="E299" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="F299" t="s">
+        <v>289</v>
+      </c>
+      <c r="G299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>282</v>
+      </c>
+      <c r="C300" t="s">
+        <v>283</v>
+      </c>
+      <c r="D300" t="s">
+        <v>284</v>
+      </c>
+      <c r="E300" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>285</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>282</v>
+      </c>
+      <c r="C301" t="s">
+        <v>283</v>
+      </c>
+      <c r="D301" t="s">
+        <v>284</v>
+      </c>
+      <c r="E301" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>288</v>
+      </c>
+      <c r="G301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>282</v>
+      </c>
+      <c r="C302" t="s">
+        <v>283</v>
+      </c>
+      <c r="D302" t="s">
+        <v>284</v>
+      </c>
+      <c r="E302" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F302" t="s">
+        <v>289</v>
+      </c>
+      <c r="G302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>290</v>
+      </c>
+      <c r="C303" t="s">
+        <v>179</v>
+      </c>
+      <c r="D303" t="s">
+        <v>179</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F303"/>
+      <c r="G303"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>290</v>
+      </c>
+      <c r="C304" t="s">
+        <v>179</v>
+      </c>
+      <c r="D304" t="s">
+        <v>179</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F304"/>
+      <c r="G304"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
